--- a/Code/Results/Cases/Case_5_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_156/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.0933868639345</v>
+        <v>15.85394732810968</v>
       </c>
       <c r="C2">
-        <v>24.57481978135165</v>
+        <v>13.48514581944743</v>
       </c>
       <c r="D2">
-        <v>3.835715286815603</v>
+        <v>4.969206946898082</v>
       </c>
       <c r="E2">
-        <v>30.59358480804828</v>
+        <v>16.49250889861493</v>
       </c>
       <c r="F2">
-        <v>40.15783868747212</v>
+        <v>31.91405166130836</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>23.67084953944917</v>
+        <v>23.19874287244302</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.21050997632087</v>
+        <v>15.15797451134646</v>
       </c>
       <c r="C3">
-        <v>22.75468881860019</v>
+        <v>12.68701410148378</v>
       </c>
       <c r="D3">
-        <v>3.819550486509269</v>
+        <v>4.982433563494094</v>
       </c>
       <c r="E3">
-        <v>28.21350208029774</v>
+        <v>15.54982305427502</v>
       </c>
       <c r="F3">
-        <v>37.61249947155756</v>
+        <v>31.27412109795081</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>22.56375921094119</v>
+        <v>23.02195282445205</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>23.00159226546623</v>
+        <v>14.71890366318364</v>
       </c>
       <c r="C4">
-        <v>21.59002981734449</v>
+        <v>12.17409127707578</v>
       </c>
       <c r="D4">
-        <v>3.817377804221991</v>
+        <v>4.991782024880804</v>
       </c>
       <c r="E4">
-        <v>26.70350362309474</v>
+        <v>14.94723132536202</v>
       </c>
       <c r="F4">
-        <v>36.03443595865087</v>
+        <v>30.88727418257572</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>21.90029463918222</v>
+        <v>22.92057014189517</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.49523208493835</v>
+        <v>14.53732229752811</v>
       </c>
       <c r="C5">
-        <v>21.10308632439385</v>
+        <v>11.95951077681816</v>
       </c>
       <c r="D5">
-        <v>3.818218030166819</v>
+        <v>4.995895811352505</v>
       </c>
       <c r="E5">
-        <v>26.07500037424564</v>
+        <v>14.69596131537296</v>
       </c>
       <c r="F5">
-        <v>35.38750054945925</v>
+        <v>30.73137712178652</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>21.63389971791739</v>
+        <v>22.88107784963083</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.41031113664847</v>
+        <v>14.50701978616817</v>
       </c>
       <c r="C6">
-        <v>21.02147130604923</v>
+        <v>11.92355038218285</v>
       </c>
       <c r="D6">
-        <v>3.818455632707478</v>
+        <v>4.996597147649619</v>
       </c>
       <c r="E6">
-        <v>25.96981745180954</v>
+        <v>14.6539022716624</v>
       </c>
       <c r="F6">
-        <v>35.27984763048097</v>
+        <v>30.70560235488173</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>21.58990268110069</v>
+        <v>22.87463072286543</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.99481939149057</v>
+        <v>14.7164651308351</v>
       </c>
       <c r="C7">
-        <v>21.58351328575768</v>
+        <v>12.17121960191544</v>
       </c>
       <c r="D7">
-        <v>3.817382429144286</v>
+        <v>4.991836278894994</v>
       </c>
       <c r="E7">
-        <v>26.69508187479827</v>
+        <v>14.94386532916705</v>
       </c>
       <c r="F7">
-        <v>36.025726674125</v>
+        <v>30.88516434215108</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>21.89668597225606</v>
+        <v>22.92003013485543</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.45485768460938</v>
+        <v>15.61657884908547</v>
       </c>
       <c r="C8">
-        <v>23.95669608088348</v>
+        <v>13.21479768401042</v>
       </c>
       <c r="D8">
-        <v>3.828391022924376</v>
+        <v>4.973510122851643</v>
       </c>
       <c r="E8">
-        <v>29.7824147288543</v>
+        <v>16.17255248081426</v>
       </c>
       <c r="F8">
-        <v>39.2832664855305</v>
+        <v>31.69227508032762</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>23.2856423930013</v>
+        <v>23.1363112085674</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.88249317646171</v>
+        <v>17.27736391435519</v>
       </c>
       <c r="C9">
-        <v>28.26283978648428</v>
+        <v>15.07334164428957</v>
       </c>
       <c r="D9">
-        <v>3.922811882531668</v>
+        <v>4.947507018560797</v>
       </c>
       <c r="E9">
-        <v>35.50160705828404</v>
+        <v>18.4744944591479</v>
       </c>
       <c r="F9">
-        <v>45.66292707753004</v>
+        <v>33.31355011951186</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>26.14959566186047</v>
+        <v>23.61624884215468</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.93167073431392</v>
+        <v>18.42130341069321</v>
       </c>
       <c r="C10">
-        <v>31.25850528200017</v>
+        <v>16.31769835030382</v>
       </c>
       <c r="D10">
-        <v>4.054561651226329</v>
+        <v>4.934728174615995</v>
       </c>
       <c r="E10">
-        <v>39.58740468718425</v>
+        <v>20.14109724497979</v>
       </c>
       <c r="F10">
-        <v>50.55507528184325</v>
+        <v>34.51542795369839</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>28.37084929381998</v>
+        <v>24.00121645478992</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.28553160756348</v>
+        <v>18.92308297424428</v>
       </c>
       <c r="C11">
-        <v>32.5976577575646</v>
+        <v>16.85658083344993</v>
       </c>
       <c r="D11">
-        <v>4.132860945692649</v>
+        <v>4.930345928834477</v>
       </c>
       <c r="E11">
-        <v>41.44775421869307</v>
+        <v>20.85794621852676</v>
       </c>
       <c r="F11">
-        <v>52.78008571945626</v>
+        <v>35.06192119520299</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>29.62941589744783</v>
+        <v>24.18294992050313</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.79461794548642</v>
+        <v>19.11027981864848</v>
       </c>
       <c r="C12">
-        <v>33.10277653034032</v>
+        <v>17.06307154061995</v>
       </c>
       <c r="D12">
-        <v>4.165644311971568</v>
+        <v>4.928896959247793</v>
       </c>
       <c r="E12">
-        <v>42.1555082492444</v>
+        <v>21.12350304161436</v>
       </c>
       <c r="F12">
-        <v>53.62496791032869</v>
+        <v>35.26862224612128</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>30.10895581809368</v>
+        <v>24.25267804753229</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.68511463035384</v>
+        <v>19.07009088930396</v>
       </c>
       <c r="C13">
-        <v>32.99405227644008</v>
+        <v>17.01734708079981</v>
       </c>
       <c r="D13">
-        <v>4.158435564016044</v>
+        <v>4.929199584005914</v>
       </c>
       <c r="E13">
-        <v>42.00287685794817</v>
+        <v>21.06657231982961</v>
       </c>
       <c r="F13">
-        <v>53.44285832561009</v>
+        <v>35.22411954578326</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>30.00551941932093</v>
+        <v>24.23762106804894</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.327478543826</v>
+        <v>18.93854094049538</v>
       </c>
       <c r="C14">
-        <v>32.63924469311189</v>
+        <v>16.87312282559413</v>
       </c>
       <c r="D14">
-        <v>4.135492086722946</v>
+        <v>4.930222475658698</v>
       </c>
       <c r="E14">
-        <v>41.505895267057</v>
+        <v>20.87991171968907</v>
       </c>
       <c r="F14">
-        <v>52.84953192485706</v>
+        <v>35.07893266580561</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>29.66879901063957</v>
+        <v>24.1886685079885</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.10798873906199</v>
+        <v>18.85759224448678</v>
       </c>
       <c r="C15">
-        <v>32.42170362150164</v>
+        <v>16.78645957656379</v>
       </c>
       <c r="D15">
-        <v>4.121862849679295</v>
+        <v>4.930876578551215</v>
       </c>
       <c r="E15">
-        <v>41.20201192465097</v>
+        <v>20.764809766483</v>
       </c>
       <c r="F15">
-        <v>52.48648756258847</v>
+        <v>34.98996370356716</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>29.46298221179352</v>
+        <v>24.15880085614728</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.84261905913581</v>
+        <v>18.38812401053178</v>
       </c>
       <c r="C16">
-        <v>31.17062582716505</v>
+        <v>16.28192909908904</v>
       </c>
       <c r="D16">
-        <v>4.049854116794573</v>
+        <v>4.935043762929912</v>
       </c>
       <c r="E16">
-        <v>39.46610115321222</v>
+        <v>20.09342190971258</v>
       </c>
       <c r="F16">
-        <v>50.40984441057324</v>
+        <v>34.47969031268256</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>28.29797464048445</v>
+        <v>23.98946931219963</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.05860309808453</v>
+        <v>18.0952479518424</v>
       </c>
       <c r="C17">
-        <v>30.3979805838351</v>
+        <v>15.96541014474897</v>
       </c>
       <c r="D17">
-        <v>4.010704813023296</v>
+        <v>4.937970056798055</v>
       </c>
       <c r="E17">
-        <v>38.40351836329736</v>
+        <v>19.6709986320909</v>
       </c>
       <c r="F17">
-        <v>49.13725846726459</v>
+        <v>34.16643939399061</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>27.71192358097856</v>
+        <v>23.8872545153566</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.60444523337105</v>
+        <v>17.92504916041692</v>
       </c>
       <c r="C18">
-        <v>29.95125367590061</v>
+        <v>15.78080061781358</v>
       </c>
       <c r="D18">
-        <v>3.98988174133207</v>
+        <v>4.939787586385396</v>
       </c>
       <c r="E18">
-        <v>37.79228608977173</v>
+        <v>19.42414247111821</v>
       </c>
       <c r="F18">
-        <v>48.40507953401087</v>
+        <v>33.9862544000481</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>27.37796679604086</v>
+        <v>23.82908802385981</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.45009180098551</v>
+        <v>17.86712786630715</v>
       </c>
       <c r="C19">
-        <v>29.79956361044129</v>
+        <v>15.71785789745826</v>
       </c>
       <c r="D19">
-        <v>3.983108932652081</v>
+        <v>4.940425910077389</v>
       </c>
       <c r="E19">
-        <v>37.58524326941316</v>
+        <v>19.33989197422478</v>
       </c>
       <c r="F19">
-        <v>48.15707679745048</v>
+        <v>33.92525142162285</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>27.26540021296046</v>
+        <v>23.80950235699019</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.1423877479749</v>
+        <v>18.12660672119382</v>
       </c>
       <c r="C20">
-        <v>30.48046123174095</v>
+        <v>15.99936912980512</v>
       </c>
       <c r="D20">
-        <v>4.014693673676234</v>
+        <v>4.93764460334295</v>
       </c>
       <c r="E20">
-        <v>38.51661928110156</v>
+        <v>19.71636856486098</v>
       </c>
       <c r="F20">
-        <v>49.27273525540704</v>
+        <v>34.1997882059074</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>27.77397871847517</v>
+        <v>23.89807108356061</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.43261143366109</v>
+        <v>18.97725779326987</v>
       </c>
       <c r="C21">
-        <v>32.74350124496406</v>
+        <v>16.91453994987527</v>
       </c>
       <c r="D21">
-        <v>4.142141693175064</v>
+        <v>4.929916277313257</v>
       </c>
       <c r="E21">
-        <v>41.65175316457539</v>
+        <v>20.9348982220559</v>
       </c>
       <c r="F21">
-        <v>53.02372066810902</v>
+        <v>35.12158580854742</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>29.76760824966426</v>
+        <v>24.20302271226781</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.90926451707369</v>
+        <v>19.51674223916369</v>
       </c>
       <c r="C22">
-        <v>34.21188038722396</v>
+        <v>17.5234870285506</v>
       </c>
       <c r="D22">
-        <v>4.249005857543734</v>
+        <v>4.926094454991147</v>
       </c>
       <c r="E22">
-        <v>43.72198705050933</v>
+        <v>21.69691642342698</v>
       </c>
       <c r="F22">
-        <v>55.49041121262962</v>
+        <v>35.72252169950087</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>31.17080949188745</v>
+        <v>24.40760760245359</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.12251267559765</v>
+        <v>19.23035676717818</v>
       </c>
       <c r="C23">
-        <v>33.42858582599082</v>
+        <v>17.19946751425355</v>
       </c>
       <c r="D23">
-        <v>4.187749636892796</v>
+        <v>4.928020215389134</v>
       </c>
       <c r="E23">
-        <v>42.6138667285635</v>
+        <v>21.29334379216612</v>
       </c>
       <c r="F23">
-        <v>54.17150805996602</v>
+        <v>35.40199552985129</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>30.41962741753935</v>
+        <v>24.29794763539691</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.10451943514816</v>
+        <v>18.1124350809237</v>
       </c>
       <c r="C24">
-        <v>30.44317968971161</v>
+        <v>15.98402448686858</v>
       </c>
       <c r="D24">
-        <v>4.012885099079433</v>
+        <v>4.937791320202155</v>
       </c>
       <c r="E24">
-        <v>38.46548762939295</v>
+        <v>19.69586927850612</v>
       </c>
       <c r="F24">
-        <v>49.21148808959018</v>
+        <v>34.18471148136781</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>27.74591442155407</v>
+        <v>23.89317904687864</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.72364271571563</v>
+        <v>16.84067190314043</v>
       </c>
       <c r="C25">
-        <v>27.13109501900297</v>
+        <v>14.59145038599028</v>
       </c>
       <c r="D25">
-        <v>3.887759364502648</v>
+        <v>4.95345016798223</v>
       </c>
       <c r="E25">
-        <v>33.98230400871086</v>
+        <v>17.8238655196067</v>
       </c>
       <c r="F25">
-        <v>43.87434303732963</v>
+        <v>32.87216146039342</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>25.35775436988457</v>
+        <v>23.48059623871805</v>
       </c>
       <c r="J25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_156/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.85394732810968</v>
+        <v>26.0933868639344</v>
       </c>
       <c r="C2">
-        <v>13.48514581944743</v>
+        <v>24.57481978135163</v>
       </c>
       <c r="D2">
-        <v>4.969206946898082</v>
+        <v>3.835715286815612</v>
       </c>
       <c r="E2">
-        <v>16.49250889861493</v>
+        <v>30.59358480804815</v>
       </c>
       <c r="F2">
-        <v>31.91405166130836</v>
+        <v>40.15783868747217</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>23.19874287244302</v>
+        <v>23.67084953944927</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.15797451134646</v>
+        <v>24.21050997632088</v>
       </c>
       <c r="C3">
-        <v>12.68701410148378</v>
+        <v>22.75468881860033</v>
       </c>
       <c r="D3">
-        <v>4.982433563494094</v>
+        <v>3.819550486509363</v>
       </c>
       <c r="E3">
-        <v>15.54982305427502</v>
+        <v>28.21350208029772</v>
       </c>
       <c r="F3">
-        <v>31.27412109795081</v>
+        <v>37.61249947155756</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>23.02195282445205</v>
+        <v>22.56375921094125</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.71890366318364</v>
+        <v>23.00159226546631</v>
       </c>
       <c r="C4">
-        <v>12.17409127707578</v>
+        <v>21.59002981734434</v>
       </c>
       <c r="D4">
-        <v>4.991782024880804</v>
+        <v>3.817377804222049</v>
       </c>
       <c r="E4">
-        <v>14.94723132536202</v>
+        <v>26.70350362309475</v>
       </c>
       <c r="F4">
-        <v>30.88727418257572</v>
+        <v>36.03443595865093</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>22.92057014189517</v>
+        <v>21.90029463918224</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.53732229752811</v>
+        <v>22.49523208493833</v>
       </c>
       <c r="C5">
-        <v>11.95951077681816</v>
+        <v>21.10308632439391</v>
       </c>
       <c r="D5">
-        <v>4.995895811352505</v>
+        <v>3.818218030166724</v>
       </c>
       <c r="E5">
-        <v>14.69596131537296</v>
+        <v>26.07500037424559</v>
       </c>
       <c r="F5">
-        <v>30.73137712178652</v>
+        <v>35.38750054945911</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>22.88107784963083</v>
+        <v>21.6338997179173</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.50701978616817</v>
+        <v>22.41031113664861</v>
       </c>
       <c r="C6">
-        <v>11.92355038218285</v>
+        <v>21.02147130604927</v>
       </c>
       <c r="D6">
-        <v>4.996597147649619</v>
+        <v>3.818455632707423</v>
       </c>
       <c r="E6">
-        <v>14.6539022716624</v>
+        <v>25.96981745180956</v>
       </c>
       <c r="F6">
-        <v>30.70560235488173</v>
+        <v>35.27984763048104</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>22.87463072286543</v>
+        <v>21.58990268110061</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.7164651308351</v>
+        <v>22.9948193914905</v>
       </c>
       <c r="C7">
-        <v>12.17121960191544</v>
+        <v>21.58351328575785</v>
       </c>
       <c r="D7">
-        <v>4.991836278894994</v>
+        <v>3.81738242914432</v>
       </c>
       <c r="E7">
-        <v>14.94386532916705</v>
+        <v>26.69508187479826</v>
       </c>
       <c r="F7">
-        <v>30.88516434215108</v>
+        <v>36.0257266741251</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>22.92003013485543</v>
+        <v>21.89668597225617</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.61657884908547</v>
+        <v>25.45485768460957</v>
       </c>
       <c r="C8">
-        <v>13.21479768401042</v>
+        <v>23.95669608088359</v>
       </c>
       <c r="D8">
-        <v>4.973510122851643</v>
+        <v>3.82839102292442</v>
       </c>
       <c r="E8">
-        <v>16.17255248081426</v>
+        <v>29.78241472885447</v>
       </c>
       <c r="F8">
-        <v>31.69227508032762</v>
+        <v>39.2832664855308</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>23.1363112085674</v>
+        <v>23.28564239300143</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.27736391435519</v>
+        <v>29.88249317646181</v>
       </c>
       <c r="C9">
-        <v>15.07334164428957</v>
+        <v>28.26283978648434</v>
       </c>
       <c r="D9">
-        <v>4.947507018560797</v>
+        <v>3.922811882531608</v>
       </c>
       <c r="E9">
-        <v>18.4744944591479</v>
+        <v>35.50160705828397</v>
       </c>
       <c r="F9">
-        <v>33.31355011951186</v>
+        <v>45.66292707753009</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>23.61624884215468</v>
+        <v>26.14959566186048</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.42130341069321</v>
+        <v>32.93167073431412</v>
       </c>
       <c r="C10">
-        <v>16.31769835030382</v>
+        <v>31.25850528200044</v>
       </c>
       <c r="D10">
-        <v>4.934728174615995</v>
+        <v>4.054561651226304</v>
       </c>
       <c r="E10">
-        <v>20.14109724497979</v>
+        <v>39.5874046871845</v>
       </c>
       <c r="F10">
-        <v>34.51542795369839</v>
+        <v>50.55507528184378</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>24.00121645478992</v>
+        <v>28.37084929382032</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.92308297424428</v>
+        <v>34.28553160756324</v>
       </c>
       <c r="C11">
-        <v>16.85658083344993</v>
+        <v>32.59765775756445</v>
       </c>
       <c r="D11">
-        <v>4.930345928834477</v>
+        <v>4.132860945692695</v>
       </c>
       <c r="E11">
-        <v>20.85794621852676</v>
+        <v>41.44775421869301</v>
       </c>
       <c r="F11">
-        <v>35.06192119520299</v>
+        <v>52.78008571945597</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>24.18294992050313</v>
+        <v>29.62941589744765</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.11027981864848</v>
+        <v>34.79461794548673</v>
       </c>
       <c r="C12">
-        <v>17.06307154061995</v>
+        <v>33.10277653034059</v>
       </c>
       <c r="D12">
-        <v>4.928896959247793</v>
+        <v>4.165644311971683</v>
       </c>
       <c r="E12">
-        <v>21.12350304161436</v>
+        <v>42.15550824924465</v>
       </c>
       <c r="F12">
-        <v>35.26862224612128</v>
+        <v>53.62496791032945</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>24.25267804753229</v>
+        <v>30.10895581809419</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.07009088930396</v>
+        <v>34.68511463035374</v>
       </c>
       <c r="C13">
-        <v>17.01734708079981</v>
+        <v>32.99405227644012</v>
       </c>
       <c r="D13">
-        <v>4.929199584005914</v>
+        <v>4.158435564016012</v>
       </c>
       <c r="E13">
-        <v>21.06657231982961</v>
+        <v>42.00287685794817</v>
       </c>
       <c r="F13">
-        <v>35.22411954578326</v>
+        <v>53.44285832560994</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>24.23762106804894</v>
+        <v>30.00551941932084</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.93854094049538</v>
+        <v>34.32747854382588</v>
       </c>
       <c r="C14">
-        <v>16.87312282559413</v>
+        <v>32.63924469311177</v>
       </c>
       <c r="D14">
-        <v>4.930222475658698</v>
+        <v>4.135492086722977</v>
       </c>
       <c r="E14">
-        <v>20.87991171968907</v>
+        <v>41.50589526705687</v>
       </c>
       <c r="F14">
-        <v>35.07893266580561</v>
+        <v>52.849531924857</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>24.1886685079885</v>
+        <v>29.66879901063953</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.85759224448678</v>
+        <v>34.10798873906213</v>
       </c>
       <c r="C15">
-        <v>16.78645957656379</v>
+        <v>32.4217036215019</v>
       </c>
       <c r="D15">
-        <v>4.930876578551215</v>
+        <v>4.121862849679328</v>
       </c>
       <c r="E15">
-        <v>20.764809766483</v>
+        <v>41.20201192465118</v>
       </c>
       <c r="F15">
-        <v>34.98996370356716</v>
+        <v>52.48648756258876</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>24.15880085614728</v>
+        <v>29.46298221179369</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.38812401053178</v>
+        <v>32.84261905913596</v>
       </c>
       <c r="C16">
-        <v>16.28192909908904</v>
+        <v>31.17062582716504</v>
       </c>
       <c r="D16">
-        <v>4.935043762929912</v>
+        <v>4.049854116794496</v>
       </c>
       <c r="E16">
-        <v>20.09342190971258</v>
+        <v>39.46610115321221</v>
       </c>
       <c r="F16">
-        <v>34.47969031268256</v>
+        <v>50.40984441057324</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>23.98946931219963</v>
+        <v>28.29797464048441</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.0952479518424</v>
+        <v>32.05860309808445</v>
       </c>
       <c r="C17">
-        <v>15.96541014474897</v>
+        <v>30.39798058383513</v>
       </c>
       <c r="D17">
-        <v>4.937970056798055</v>
+        <v>4.010704813023343</v>
       </c>
       <c r="E17">
-        <v>19.6709986320909</v>
+        <v>38.4035183632972</v>
       </c>
       <c r="F17">
-        <v>34.16643939399061</v>
+        <v>49.13725846726458</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>23.8872545153566</v>
+        <v>27.71192358097862</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.92504916041692</v>
+        <v>31.60444523337095</v>
       </c>
       <c r="C18">
-        <v>15.78080061781358</v>
+        <v>29.95125367590052</v>
       </c>
       <c r="D18">
-        <v>4.939787586385396</v>
+        <v>3.989881741332044</v>
       </c>
       <c r="E18">
-        <v>19.42414247111821</v>
+        <v>37.79228608977171</v>
       </c>
       <c r="F18">
-        <v>33.9862544000481</v>
+        <v>48.40507953401078</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>23.82908802385981</v>
+        <v>27.37796679604087</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.86712786630715</v>
+        <v>31.45009180098561</v>
       </c>
       <c r="C19">
-        <v>15.71785789745826</v>
+        <v>29.79956361044145</v>
       </c>
       <c r="D19">
-        <v>4.940425910077389</v>
+        <v>3.983108932652143</v>
       </c>
       <c r="E19">
-        <v>19.33989197422478</v>
+        <v>37.58524326941306</v>
       </c>
       <c r="F19">
-        <v>33.92525142162285</v>
+        <v>48.15707679745078</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>23.80950235699019</v>
+        <v>27.2654002129606</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.12660672119382</v>
+        <v>32.14238774797484</v>
       </c>
       <c r="C20">
-        <v>15.99936912980512</v>
+        <v>30.48046123174084</v>
       </c>
       <c r="D20">
-        <v>4.93764460334295</v>
+        <v>4.014693673676235</v>
       </c>
       <c r="E20">
-        <v>19.71636856486098</v>
+        <v>38.51661928110133</v>
       </c>
       <c r="F20">
-        <v>34.1997882059074</v>
+        <v>49.27273525540679</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>23.89807108356061</v>
+        <v>27.7739787184751</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.97725779326987</v>
+        <v>34.43261143366102</v>
       </c>
       <c r="C21">
-        <v>16.91453994987527</v>
+        <v>32.74350124496394</v>
       </c>
       <c r="D21">
-        <v>4.929916277313257</v>
+        <v>4.142141693175096</v>
       </c>
       <c r="E21">
-        <v>20.9348982220559</v>
+        <v>41.65175316457527</v>
       </c>
       <c r="F21">
-        <v>35.12158580854742</v>
+        <v>53.02372066810877</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>24.20302271226781</v>
+        <v>29.76760824966411</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.51674223916369</v>
+        <v>35.90926451707372</v>
       </c>
       <c r="C22">
-        <v>17.5234870285506</v>
+        <v>34.21188038722383</v>
       </c>
       <c r="D22">
-        <v>4.926094454991147</v>
+        <v>4.24900585754372</v>
       </c>
       <c r="E22">
-        <v>21.69691642342698</v>
+        <v>43.72198705050932</v>
       </c>
       <c r="F22">
-        <v>35.72252169950087</v>
+        <v>55.49041121262962</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>24.40760760245359</v>
+        <v>31.17080949188746</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.23035676717818</v>
+        <v>35.12251267559765</v>
       </c>
       <c r="C23">
-        <v>17.19946751425355</v>
+        <v>33.42858582599098</v>
       </c>
       <c r="D23">
-        <v>4.928020215389134</v>
+        <v>4.187749636892764</v>
       </c>
       <c r="E23">
-        <v>21.29334379216612</v>
+        <v>42.6138667285635</v>
       </c>
       <c r="F23">
-        <v>35.40199552985129</v>
+        <v>54.17150805996591</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>24.29794763539691</v>
+        <v>30.41962741753925</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.1124350809237</v>
+        <v>32.10451943514794</v>
       </c>
       <c r="C24">
-        <v>15.98402448686858</v>
+        <v>30.44317968971129</v>
       </c>
       <c r="D24">
-        <v>4.937791320202155</v>
+        <v>4.012885099079468</v>
       </c>
       <c r="E24">
-        <v>19.69586927850612</v>
+        <v>38.46548762939283</v>
       </c>
       <c r="F24">
-        <v>34.18471148136781</v>
+        <v>49.21148808958976</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>23.89317904687864</v>
+        <v>27.74591442155395</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.84067190314043</v>
+        <v>28.72364271571571</v>
       </c>
       <c r="C25">
-        <v>14.59145038599028</v>
+        <v>27.13109501900301</v>
       </c>
       <c r="D25">
-        <v>4.95345016798223</v>
+        <v>3.887759364502577</v>
       </c>
       <c r="E25">
-        <v>17.8238655196067</v>
+        <v>33.98230400871088</v>
       </c>
       <c r="F25">
-        <v>32.87216146039342</v>
+        <v>43.87434303732989</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>23.48059623871805</v>
+        <v>25.35775436988472</v>
       </c>
       <c r="J25">
         <v>0</v>
